--- a/project database.xlsx
+++ b/project database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PANKAJ HODAGE\Desktop\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4BB7DA-BAFF-4986-9071-B749E533D43A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11487DA-6BFA-464D-82B8-BB4D3ABE2715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{B7EA8C06-D43D-4AF1-96AA-1F6BC71F136E}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="55">
   <si>
     <t>Customer</t>
   </si>
@@ -93,15 +93,9 @@
     <t>person_id</t>
   </si>
   <si>
-    <t>tranction_id</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
-    <t>street</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -126,18 +120,12 @@
     <t>cat_id</t>
   </si>
   <si>
-    <t>tranction</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
     <t>pincode</t>
   </si>
   <si>
-    <t>Transaction</t>
-  </si>
-  <si>
     <t>Primary key =</t>
   </si>
   <si>
@@ -169,6 +157,42 @@
   </si>
   <si>
     <t>cart_id</t>
+  </si>
+  <si>
+    <t>OrderDetails</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>pay_id</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>pay_mode</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>DeliveryAddress</t>
+  </si>
+  <si>
+    <t>add_line_1</t>
+  </si>
+  <si>
+    <t>add_line_2</t>
+  </si>
+  <si>
+    <t>customer_id</t>
   </si>
 </sst>
 </file>
@@ -240,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -263,11 +287,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -300,6 +337,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -616,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68532865-5322-44EC-BD66-7214765AE4A8}">
-  <dimension ref="C3:W24"/>
+  <dimension ref="C3:W31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19:X24"/>
+    <sheetView topLeftCell="B2" zoomScale="70" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,16 +715,16 @@
         <v>6</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>12</v>
@@ -690,31 +733,31 @@
         <v>14</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="V4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="3:23" x14ac:dyDescent="0.25">
@@ -836,16 +879,16 @@
         <v>5</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>10</v>
@@ -854,7 +897,7 @@
         <v>14</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>17</v>
@@ -866,7 +909,7 @@
         <v>18</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="3:23" x14ac:dyDescent="0.25">
@@ -951,10 +994,10 @@
         <v>19</v>
       </c>
       <c r="O19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="U19" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="U19" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" spans="3:23" x14ac:dyDescent="0.25">
@@ -977,25 +1020,25 @@
         <v>6</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="O20" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>14</v>
@@ -1004,7 +1047,7 @@
         <v>8</v>
       </c>
       <c r="U20" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>14</v>
@@ -1093,6 +1136,56 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
     </row>
+    <row r="26" spans="3:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="O26" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="O27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1103,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{578FF125-2367-4CE4-9BDB-A951B6DA762C}">
   <dimension ref="C3:Y31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26:X31"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,16 +1249,16 @@
         <v>6</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>12</v>
@@ -1177,31 +1270,31 @@
         <v>14</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="X4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="3:25" x14ac:dyDescent="0.25">
@@ -1330,23 +1423,23 @@
         <v>5</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="L12" s="3"/>
       <c r="P12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>17</v>
@@ -1358,7 +1451,7 @@
         <v>18</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>8</v>
@@ -1445,12 +1538,15 @@
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
     </row>
-    <row r="19" spans="3:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="3:24" x14ac:dyDescent="0.25">
@@ -1473,22 +1569,37 @@
         <v>6</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="P20" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="3:24" x14ac:dyDescent="0.25">
@@ -1504,6 +1615,11 @@
       <c r="L21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
     </row>
     <row r="22" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
@@ -1518,6 +1634,11 @@
       <c r="L22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
     </row>
     <row r="23" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
@@ -1532,6 +1653,11 @@
       <c r="L23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
     </row>
     <row r="24" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
@@ -1546,24 +1672,29 @@
       <c r="L24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
     </row>
     <row r="26" spans="3:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="O26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="V26" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="V26" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="3:24" x14ac:dyDescent="0.25">
       <c r="O27" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>14</v>
@@ -1575,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W27" s="3" t="s">
         <v>14</v>
@@ -1638,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65800D88-91D3-4D98-B522-0726F456423A}">
   <dimension ref="C3:Y32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:L32"/>
+    <sheetView topLeftCell="B6" zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,7 +1785,8 @@
     <col min="9" max="10" width="9.140625" style="2"/>
     <col min="11" max="11" width="11.28515625" style="2" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" style="2" customWidth="1"/>
-    <col min="13" max="15" width="12" style="2" customWidth="1"/>
+    <col min="13" max="14" width="12" style="2" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" style="2" customWidth="1"/>
     <col min="16" max="18" width="12.28515625" style="2" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" style="2" customWidth="1"/>
     <col min="20" max="20" width="13.85546875" style="2" customWidth="1"/>
@@ -1672,7 +1804,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="3:25" x14ac:dyDescent="0.25">
@@ -1695,16 +1827,16 @@
         <v>6</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>12</v>
@@ -1716,10 +1848,10 @@
         <v>14</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
@@ -1834,23 +1966,23 @@
         <v>5</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="L12" s="3"/>
       <c r="P12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>17</v>
@@ -1862,7 +1994,7 @@
         <v>18</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>8</v>
@@ -1949,12 +2081,15 @@
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
     </row>
-    <row r="19" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="6" t="s">
-        <v>30</v>
+      <c r="O19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.25">
@@ -1977,22 +2112,37 @@
         <v>6</v>
       </c>
       <c r="I20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="3" t="s">
+      <c r="L20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>27</v>
+      <c r="O20" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="3:22" x14ac:dyDescent="0.25">
@@ -2006,8 +2156,13 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
+      <c r="O21" s="3"/>
       <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
     </row>
     <row r="22" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
@@ -2020,8 +2175,13 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
+      <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
     </row>
     <row r="23" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
@@ -2034,8 +2194,13 @@
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
+      <c r="O23" s="3"/>
       <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
     </row>
     <row r="24" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
@@ -2048,29 +2213,34 @@
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
+      <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
     </row>
     <row r="27" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J27" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>32</v>
+      <c r="P27" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>14</v>
@@ -2082,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>14</v>
@@ -2097,16 +2267,16 @@
         <v>20</v>
       </c>
       <c r="Q28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R28" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="S28" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="T28" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="3:22" x14ac:dyDescent="0.25">
@@ -2187,20 +2357,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3119F52-32EE-4DC4-AF18-98C75C7B4E13}">
   <dimension ref="C3:Y46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="61" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="13" style="2" customWidth="1"/>
-    <col min="6" max="11" width="9.140625" style="2"/>
+    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="2"/>
     <col min="12" max="12" width="10.42578125" style="2" customWidth="1"/>
-    <col min="13" max="15" width="12" style="2" customWidth="1"/>
-    <col min="16" max="18" width="12.28515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="2" customWidth="1"/>
+    <col min="14" max="15" width="12" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13" style="2" customWidth="1"/>
     <col min="19" max="19" width="14.7109375" style="2" customWidth="1"/>
     <col min="20" max="20" width="13.85546875" style="2" customWidth="1"/>
     <col min="21" max="22" width="14" style="2" customWidth="1"/>
@@ -2209,12 +2385,14 @@
     <col min="25" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="3:25" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
       <c r="M3" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="P3" s="4"/>
     </row>
@@ -2231,18 +2409,14 @@
       <c r="F4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="12" t="s">
         <v>5</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="4"/>
       <c r="M4" s="7" t="s">
         <v>12</v>
@@ -2251,10 +2425,10 @@
         <v>14</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
@@ -2264,10 +2438,10 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="12"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="4"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -2281,10 +2455,10 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="12"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="4"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -2298,10 +2472,10 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="12"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -2315,10 +2489,10 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="12"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -2365,10 +2539,10 @@
         <v>5</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -2377,7 +2551,7 @@
         <v>14</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>17</v>
@@ -2386,10 +2560,10 @@
         <v>16</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S12" s="10" t="s">
         <v>8</v>
@@ -2485,7 +2659,10 @@
       </c>
       <c r="K19" s="4"/>
       <c r="M19" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.25">
@@ -2508,17 +2685,32 @@
         <v>6</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K20" s="4"/>
       <c r="M20" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="3:22" x14ac:dyDescent="0.25">
@@ -2533,6 +2725,11 @@
       <c r="K21" s="4"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
     </row>
     <row r="22" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
@@ -2546,6 +2743,11 @@
       <c r="K22" s="4"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
     </row>
     <row r="23" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
@@ -2559,6 +2761,11 @@
       <c r="K23" s="4"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
     </row>
     <row r="24" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
@@ -2572,51 +2779,71 @@
       <c r="K24" s="4"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
     </row>
     <row r="27" spans="3:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C27" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C28" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>1</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>20</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="P28" s="10" t="s">
         <v>1</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -2629,6 +2856,9 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
@@ -2641,6 +2871,9 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
@@ -2653,6 +2886,9 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
@@ -2663,30 +2899,39 @@
     </row>
     <row r="35" spans="3:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C35" s="11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="3:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P36" s="10" t="s">
         <v>14</v>
@@ -2702,6 +2947,9 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -2713,6 +2961,9 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -2724,6 +2975,9 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -2735,6 +2989,9 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -2744,7 +3001,7 @@
     </row>
     <row r="44" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D44" s="9"/>
     </row>
@@ -2753,7 +3010,7 @@
     </row>
     <row r="46" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C46" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D46" s="8"/>
     </row>
